--- a/rrd/AppData/AppData.xlsx
+++ b/rrd/AppData/AppData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rai Sigh\Downloads\Devworkspace\Devworkspace\rrd\AppData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RRDNewarg\rrd\AppData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28724ED-108F-4511-9C4A-29576C80CC7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9581E3B4-0D28-4C78-98CC-08CF9FA680E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="TeamNewCriteriaOnline" sheetId="11" r:id="rId11"/>
     <sheet name="RRDUserOnline" sheetId="12" r:id="rId12"/>
     <sheet name="RRDCaseOnline" sheetId="13" r:id="rId13"/>
+    <sheet name="Changeowner" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="88">
   <si>
     <t>UserName</t>
   </si>
@@ -270,9 +271,6 @@
     <t>Nandini20@</t>
   </si>
   <si>
-    <t>dummyacc@test.com</t>
-  </si>
-  <si>
     <t>Team</t>
   </si>
   <si>
@@ -282,13 +280,13 @@
     <t>TeamcheckOnline</t>
   </si>
   <si>
-    <t>testuserztd21@gmail.com</t>
-  </si>
-  <si>
-    <t>Mirketa@01</t>
-  </si>
-  <si>
-    <t>Test User</t>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>CLOUDTEAM_CTEST</t>
+  </si>
+  <si>
+    <t>gwn45027@bcaoo.com</t>
   </si>
   <si>
     <t>rrd_teamtest@mirketa.com</t>
@@ -297,14 +295,20 @@
     <t>Mirketa90#</t>
   </si>
   <si>
-    <t>gwn45027@bcaoo.com</t>
+    <t>doppler</t>
+  </si>
+  <si>
+    <t>symbiosis</t>
+  </si>
+  <si>
+    <t>Security User</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,14 +358,20 @@
       <family val="3"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF201F1E"/>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -371,6 +381,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,7 +410,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -415,12 +437,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -702,19 +730,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.21875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="7.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -722,45 +750,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:2" ht="24" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>84</v>
-      </c>
-      <c r="B3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" xr:uid="{4A73921D-11FD-465C-8AD3-66976B19E4B6}"/>
-    <hyperlink ref="A5" r:id="rId2" xr:uid="{61B60F33-1693-40B7-8A89-2D0C909B2183}"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{61B60F33-1693-40B7-8A89-2D0C909B2183}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -769,18 +780,18 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="32.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -794,12 +805,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>8</v>
@@ -821,15 +832,15 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="1" max="1" width="24.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -843,18 +854,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>14</v>
+      <c r="C2" s="18" t="s">
+        <v>81</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -870,18 +881,18 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="26.28515625" customWidth="1"/>
-    <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.77734375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.77734375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
@@ -904,9 +915,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>22</v>
@@ -924,10 +935,10 @@
         <v>2</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>21</v>
       </c>
@@ -947,7 +958,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -957,28 +968,32 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3322AAD7-AFB8-4370-9228-62FBE45E1D69}">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="10" max="10" width="23.85546875" customWidth="1"/>
-    <col min="11" max="11" width="21.28515625" customWidth="1"/>
-    <col min="12" max="12" width="20.5703125" customWidth="1"/>
-    <col min="13" max="13" width="23.7109375" customWidth="1"/>
-    <col min="14" max="14" width="19.85546875" customWidth="1"/>
-    <col min="15" max="15" width="25.7109375" customWidth="1"/>
-    <col min="16" max="16" width="19.28515625" customWidth="1"/>
-    <col min="17" max="17" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.77734375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.77734375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.88671875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="23.88671875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.21875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="20.5546875" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="23.77734375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="19.88671875" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="25.6640625" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="19.33203125" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="18.77734375" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="10" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
@@ -1030,8 +1045,9 @@
       <c r="Q1" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R1" s="21"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -1065,8 +1081,8 @@
       <c r="K2" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>14</v>
+      <c r="L2" s="18" t="s">
+        <v>81</v>
       </c>
       <c r="M2" t="s">
         <v>71</v>
@@ -1074,129 +1090,103 @@
       <c r="N2" t="s">
         <v>56</v>
       </c>
-      <c r="O2" s="8" t="s">
-        <v>83</v>
+      <c r="O2" s="13" t="s">
+        <v>87</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q2" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="B3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>47</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>48</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G3" t="s">
-        <v>61</v>
+      <c r="G3" s="9" t="s">
+        <v>86</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="21" t="s">
         <v>53</v>
       </c>
       <c r="J3" s="10" t="s">
         <v>54</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" t="s">
-        <v>72</v>
-      </c>
-      <c r="N3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="N3" s="21" t="s">
         <v>56</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" t="s">
-        <v>73</v>
-      </c>
-      <c r="N4" t="s">
-        <v>56</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="K2" r:id="rId1" xr:uid="{E29B62D0-DE30-4A71-833C-E10179D32A64}"/>
-    <hyperlink ref="K3" r:id="rId2" xr:uid="{354DF0DA-A6C2-4F45-A10A-C0B70402C411}"/>
-    <hyperlink ref="K4" r:id="rId3" xr:uid="{FC80E434-E703-4FAD-B37C-E21A47903F9A}"/>
+    <hyperlink ref="K3" r:id="rId2" xr:uid="{8B0CA39E-13B8-40FC-8252-81FBFBE9927A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A13B08C-0C24-4372-AEA4-0473B65BFAA3}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1208,15 +1198,15 @@
       <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.88671875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
@@ -1230,7 +1220,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -1257,22 +1247,22 @@
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>57</v>
       </c>
@@ -1290,15 +1280,15 @@
       <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" customWidth="1"/>
+    <col min="1" max="1" width="32" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.77734375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.88671875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="26.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1312,7 +1302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -1326,7 +1316,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>48.6</v>
       </c>
@@ -1354,14 +1344,14 @@
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -1372,7 +1362,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
@@ -1383,7 +1373,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1401,17 +1391,17 @@
       <selection sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.88671875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.77734375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
@@ -1431,7 +1421,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>21</v>
       </c>
@@ -1451,7 +1441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>62</v>
       </c>
@@ -1481,30 +1471,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3BCCA1-BE59-44F7-95E0-1A15A1E03038}">
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection sqref="A1:Q3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" customWidth="1"/>
-    <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" customWidth="1"/>
-    <col min="11" max="11" width="21" customWidth="1"/>
-    <col min="12" max="12" width="22.7109375" customWidth="1"/>
-    <col min="13" max="13" width="24.42578125" customWidth="1"/>
-    <col min="14" max="14" width="28.28515625" customWidth="1"/>
-    <col min="15" max="15" width="22.7109375" customWidth="1"/>
-    <col min="16" max="16" width="17.5703125" customWidth="1"/>
-    <col min="17" max="17" width="23.7109375" style="5" customWidth="1"/>
-    <col min="18" max="18" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.77734375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.5546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.88671875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="22.77734375" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="24.44140625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="28.33203125" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="22.6640625" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="17.5546875" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="23.77734375" style="5" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="20.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
@@ -1558,7 +1548,7 @@
       </c>
       <c r="R1" s="15"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -1613,7 +1603,7 @@
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -1667,7 +1657,7 @@
       </c>
       <c r="R3" s="5"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -1739,15 +1729,15 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
@@ -1761,9 +1751,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
         <v>28</v>
@@ -1785,22 +1775,22 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="12"/>
     </row>
   </sheetData>

--- a/rrd/AppData/AppData.xlsx
+++ b/rrd/AppData/AppData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RRDNewarg\rrd\AppData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rai Sigh\git\RRD_Opportunity\rrd\AppData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9581E3B4-0D28-4C78-98CC-08CF9FA680E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A5BB43-2B17-44D1-B9DC-F1BD7200FD67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="90">
   <si>
     <t>UserName</t>
   </si>
@@ -302,6 +302,12 @@
   </si>
   <si>
     <t>Security User</t>
+  </si>
+  <si>
+    <t>manas123</t>
+  </si>
+  <si>
+    <t>manas.jena@mirketa.com.rrdqa</t>
   </si>
 </sst>
 </file>
@@ -410,7 +416,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -449,6 +455,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -730,19 +737,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="7.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -750,25 +757,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="24" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B3" s="19" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B4" s="20" t="s">
         <v>84</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{61B60F33-1693-40B7-8A89-2D0C909B2183}"/>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{61B60F33-1693-40B7-8A89-2D0C909B2183}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -783,15 +798,15 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="32.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -805,7 +820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -832,15 +847,15 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="17" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -854,7 +869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
@@ -881,18 +896,18 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="23" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26.28515625" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="21" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
@@ -915,7 +930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>87</v>
       </c>
@@ -938,7 +953,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>21</v>
       </c>
@@ -974,26 +989,26 @@
       <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.77734375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="23.88671875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.21875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="20.5546875" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="23.77734375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19.88671875" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="25.6640625" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="19.33203125" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="18.77734375" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="23.7109375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="19.85546875" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="12.28515625" customWidth="1" collapsed="1"/>
     <col min="19" max="19" width="10" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
@@ -1047,7 +1062,7 @@
       </c>
       <c r="R1" s="21"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -1100,7 +1115,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>45</v>
       </c>
@@ -1167,19 +1182,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A13B08C-0C24-4372-AEA4-0473B65BFAA3}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>21</v>
       </c>
@@ -1198,15 +1213,15 @@
       <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="26" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.88671875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
@@ -1220,7 +1235,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -1247,22 +1262,22 @@
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>57</v>
       </c>
@@ -1280,15 +1295,15 @@
       <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.88671875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="26.77734375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="26.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1302,7 +1317,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -1316,7 +1331,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>48.6</v>
       </c>
@@ -1344,14 +1359,14 @@
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -1362,7 +1377,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
@@ -1373,7 +1388,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1391,17 +1406,17 @@
       <selection sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.88671875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.77734375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
@@ -1421,7 +1436,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>21</v>
       </c>
@@ -1441,7 +1456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>62</v>
       </c>
@@ -1475,26 +1490,26 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="15" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.77734375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.5546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="17" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.88671875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.85546875" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="21" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="22.77734375" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="24.44140625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="28.33203125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="22.6640625" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="17.5546875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="23.77734375" style="5" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="20.6640625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="22.7109375" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="24.42578125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="22.7109375" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="23.7109375" style="5" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="20.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
@@ -1548,7 +1563,7 @@
       </c>
       <c r="R1" s="15"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -1603,7 +1618,7 @@
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -1657,7 +1672,7 @@
       </c>
       <c r="R3" s="5"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -1729,15 +1744,15 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="20" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
@@ -1751,7 +1766,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -1775,22 +1790,22 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
     </row>
   </sheetData>
